--- a/ANN_Stopping_Grid/Data3/Search/manual_search_results_2HL_bs.xlsx
+++ b/ANN_Stopping_Grid/Data3/Search/manual_search_results_2HL_bs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\ANN_Stopping_Grid\Data3\Search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E9183CAD-1DDF-4FB9-B11D-98A6EFE3B2BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2433134C-D544-41A2-88D6-4181ADFFE9A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -22,40 +22,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>2_4-8_152_0.2_5: 0.03912426222423791</t>
-  </si>
-  <si>
-    <t>2_4-8_152_0.2_10: 0.025463940843526208</t>
-  </si>
-  <si>
-    <t>2_4-8_152_0.2_15: 0.01170285622095329</t>
-  </si>
-  <si>
-    <t>2_4-8_152_0.2_20: 0.00880975111926441</t>
-  </si>
-  <si>
-    <t>2_4-8_152_0.2_30: 0.00861911794233437</t>
-  </si>
-  <si>
-    <t>2_4-8_152_0.2_40: 0.007042303877019998</t>
-  </si>
-  <si>
-    <t>2_4-8_152_0.2_50: 0.012459997710486934</t>
-  </si>
-  <si>
-    <t>2_4-8_152_0.2_100: 0.0677601253433486</t>
-  </si>
-  <si>
-    <t>2_4-8_152_0.2_200: 0.007444225190124223</t>
-  </si>
-  <si>
-    <t>2_4-8_152_0.2_300: 0.007800643953794743</t>
-  </si>
-  <si>
-    <t>2_4-8_152_0.2_400: 0.008491269258494225</t>
-  </si>
-  <si>
-    <t>2_4-8_152_0.2_500: 0.008090178568903929</t>
+    <t>2_4-8_152_0.006_5: 0.009393794438886141</t>
+  </si>
+  <si>
+    <t>2_4-8_152_0.006_10: 0.010071973661049017</t>
+  </si>
+  <si>
+    <t>2_4-8_152_0.006_15: 0.010391970361755138</t>
+  </si>
+  <si>
+    <t>2_4-8_152_0.006_20: 0.013551525462043587</t>
+  </si>
+  <si>
+    <t>2_4-8_152_0.006_30: 0.007608188465108028</t>
+  </si>
+  <si>
+    <t>2_4-8_152_0.006_40: 0.016059355228554055</t>
+  </si>
+  <si>
+    <t>2_4-8_152_0.006_50: 0.014950738845981767</t>
+  </si>
+  <si>
+    <t>2_4-8_152_0.006_100: 0.008528136363530801</t>
+  </si>
+  <si>
+    <t>2_4-8_152_0.006_200: 0.006545071373686794</t>
+  </si>
+  <si>
+    <t>2_4-8_152_0.006_300: 0.0059431560056818185</t>
+  </si>
+  <si>
+    <t>2_4-8_152_0.006_400: 0.00608029695920654</t>
+  </si>
+  <si>
+    <t>2_4-8_152_0.006_500: 0.00598220143069908</t>
   </si>
 </sst>
 </file>
@@ -906,12 +906,12 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -940,7 +940,7 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/ANN_Stopping_Grid/Data3/Search/manual_search_results_2HL_bs.xlsx
+++ b/ANN_Stopping_Grid/Data3/Search/manual_search_results_2HL_bs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\ANN_Stopping_Grid\Data3\Search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2433134C-D544-41A2-88D6-4181ADFFE9A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F982CE9-0598-4281-AD11-0B0367545B1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="manual_search_results_2HL_bs" sheetId="1" r:id="rId1"/>
@@ -55,13 +55,13 @@
     <t>2_4-8_152_0.006_400: 0.00608029695920654</t>
   </si>
   <si>
-    <t>2_4-8_152_0.006_500: 0.00598220143069908</t>
+    <t>2_4-8_152_0.006_500: 0.00683523454789454</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -604,6 +604,1029 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Optimisation</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>manual_search_results_2HL_bs!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>manual_search_results_2HL_bs!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9.3937944388861397E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0071973661049E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.03919703617551E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3551525462043501E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6081884651080199E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6059355228553999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4950738845981699E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5281363635307996E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5450713736867902E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.9431560056818098E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.0802969592065404E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.8352345478945404E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BCA0-429B-A7ED-C9667B40B821}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="196671840"/>
+        <c:axId val="363342208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="196671840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t>Batch Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="363342208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="363342208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="1"/>
+                  <a:t>Average MSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="196671840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>182879</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F71B63DF-D33D-485D-B79C-7535252EF236}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -902,11 +1925,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,67 +1937,142 @@
     <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>9.3937944388861397E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>1.0071973661049E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>1.03919703617551E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>1.3551525462043501E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>7.6081884651080199E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>1.6059355228553999E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>1.4950738845981699E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>8.5281363635307996E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10">
+        <v>6.5450713736867902E-3</v>
+      </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="C11">
+        <v>300</v>
+      </c>
+      <c r="D11">
+        <v>5.9431560056818098E-3</v>
+      </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
+      </c>
+      <c r="C12">
+        <v>400</v>
+      </c>
+      <c r="D12">
+        <v>6.0802969592065404E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>500</v>
+      </c>
+      <c r="D13">
+        <v>6.8352345478945404E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ANN_Stopping_Grid/Data3/Search/manual_search_results_2HL_bs.xlsx
+++ b/ANN_Stopping_Grid/Data3/Search/manual_search_results_2HL_bs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\ANN_Stopping_Grid\Data3\Search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F982CE9-0598-4281-AD11-0B0367545B1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E05C3A-38F2-48C1-96E2-9E8BCF645F57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,7 +635,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="92D050"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -793,7 +793,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -806,7 +806,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" b="1"/>
+                  <a:rPr lang="en-GB" sz="1200" b="1"/>
                   <a:t>Batch Size</a:t>
                 </a:r>
               </a:p>
@@ -825,7 +825,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -863,7 +863,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -896,7 +896,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -909,12 +909,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" b="1"/>
+                  <a:rPr lang="en-GB" sz="1200" b="1"/>
                   <a:t>Average MSE</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.5755785327424915E-2"/>
+              <c:y val="0.34268962317671886"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -928,7 +936,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -966,7 +974,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1929,20 +1937,20 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1953,7 +1961,7 @@
         <v>9.3937944388861397E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1964,7 +1972,7 @@
         <v>1.0071973661049E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1975,7 +1983,7 @@
         <v>1.03919703617551E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1986,7 +1994,7 @@
         <v>1.3551525462043501E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1997,7 +2005,7 @@
         <v>7.6081884651080199E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2008,7 +2016,7 @@
         <v>1.6059355228553999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2019,7 +2027,7 @@
         <v>1.4950738845981699E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2030,7 +2038,7 @@
         <v>8.5281363635307996E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2041,7 +2049,7 @@
         <v>6.5450713736867902E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2052,7 +2060,7 @@
         <v>5.9431560056818098E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2063,7 +2071,7 @@
         <v>6.0802969592065404E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="C13">
         <v>500</v>
       </c>
